--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1616057743" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1616057743" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1616057743" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1616057743"/>
+      <pm:revision xmlns:pm="smNativeData" day="1616103041" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1616103041" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1616103041" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1616103041"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>variable</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>sanitizer</t>
+  </si>
+  <si>
+    <t>is_significant</t>
+  </si>
+  <si>
+    <t>citation_count</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616057743" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616103041" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -215,7 +221,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616057743" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616103041" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -237,7 +243,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1616057743" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1616103041" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -259,7 +265,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616057743"/>
+          <pm:border xmlns:pm="smNativeData" id="1616103041"/>
         </ext>
       </extLst>
     </border>
@@ -278,7 +284,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616057743"/>
+          <pm:border xmlns:pm="smNativeData" id="1616103041"/>
         </ext>
       </extLst>
     </border>
@@ -295,7 +301,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1616057743" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1616103041" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C15"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -1003,11 +1009,33 @@
         <v>6</v>
       </c>
     </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616057743" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616103041" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1016,14 +1044,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616057743" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616057743" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616103041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616103041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616057743" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616103041" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1616103041" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1616103041" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1616103041" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1616103041"/>
+      <pm:revision xmlns:pm="smNativeData" day="1616415988" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1616415988" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1616415988" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1616415988"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>variable</t>
   </si>
@@ -46,6 +46,12 @@
     <t>ok</t>
   </si>
   <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>project-management</t>
+  </si>
+  <si>
     <t xml:space="preserve">publication_date               </t>
   </si>
   <si>
@@ -182,6 +188,18 @@
   </si>
   <si>
     <t>citation_count</t>
+  </si>
+  <si>
+    <t>pos_neg_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of positively to negatively connotated words in conclusion of abstract according to "Bing" dictionary</t>
+  </si>
+  <si>
+    <t>emo_count</t>
+  </si>
+  <si>
+    <t>Count of emotional words (pos+neg) in conclusion of abstract according to "Bing" dictionary</t>
   </si>
 </sst>
 </file>
@@ -206,7 +224,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616103041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616415988" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -221,7 +239,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616103041" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616415988" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -243,7 +261,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1616103041" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1616415988" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -265,7 +283,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616103041"/>
+          <pm:border xmlns:pm="smNativeData" id="1616415988"/>
         </ext>
       </extLst>
     </border>
@@ -284,7 +302,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616103041"/>
+          <pm:border xmlns:pm="smNativeData" id="1616415988"/>
         </ext>
       </extLst>
     </border>
@@ -301,7 +319,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1616103041" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1616415988" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -565,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -618,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -626,10 +644,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -637,10 +655,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -648,10 +666,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -659,7 +677,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -670,7 +688,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -681,7 +699,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -692,10 +710,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -706,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -714,10 +732,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -725,10 +743,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -736,10 +754,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -747,10 +765,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -761,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -769,10 +787,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -780,10 +798,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -791,10 +809,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -802,10 +820,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -813,10 +831,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -824,10 +842,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -838,7 +856,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -846,7 +864,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -857,32 +875,32 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -890,10 +908,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -901,10 +919,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -912,10 +930,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -923,10 +941,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -934,10 +952,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -945,10 +963,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -956,10 +974,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -967,10 +985,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -978,10 +996,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -989,10 +1007,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1000,10 +1018,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1014,7 +1032,7 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1022,20 +1040,53 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
-        <v>6</v>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616103041" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616415988" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1044,14 +1095,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616103041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616103041" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616415988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616415988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616103041" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616415988" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1616415988" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1616415988" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1616415988" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1616415988"/>
+      <pm:revision xmlns:pm="smNativeData" day="1620987538" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1620987538" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1620987538" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1620987538"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>variable</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">is_most_recent_version         </t>
+  </si>
+  <si>
+    <t>is_withdrawn</t>
   </si>
   <si>
     <t xml:space="preserve">url_most_most_version          </t>
@@ -224,7 +227,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616415988" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620987538" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -239,7 +242,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616415988" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620987538" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -261,7 +264,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1616415988" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1620987538" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -283,7 +286,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616415988"/>
+          <pm:border xmlns:pm="smNativeData" id="1620987538"/>
         </ext>
       </extLst>
     </border>
@@ -302,7 +305,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616415988"/>
+          <pm:border xmlns:pm="smNativeData" id="1620987538"/>
         </ext>
       </extLst>
     </border>
@@ -319,7 +322,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1616415988" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1620987538" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -724,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -732,10 +735,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -746,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -757,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -768,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -779,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -787,10 +790,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -801,7 +804,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -812,7 +815,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -823,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -834,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -845,7 +848,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -856,7 +859,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -864,10 +867,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -889,21 +892,21 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -911,7 +914,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -922,7 +925,7 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -933,7 +936,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -944,7 +947,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -955,7 +958,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -966,7 +969,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -977,7 +980,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -988,7 +991,7 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -999,7 +1002,7 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1010,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1021,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1032,7 +1035,7 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1040,10 +1043,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
         <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -1054,7 +1057,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1064,29 +1067,40 @@
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616415988" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1620987538" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1095,14 +1109,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616415988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616415988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1620987538" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1620987538" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616415988" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620987538" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
